--- a/Data/Bystrategi_Grenland/Klima/Luftforurensing/PM10 og NO2 døgn 2015 (KM og FM mangler).xlsx
+++ b/Data/Bystrategi_Grenland/Klima/Luftforurensing/PM10 og NO2 døgn 2015 (KM og FM mangler).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\4. Avdeling MHV\Luftovervåkning\Prosjekter\Rådata til interaktivt dashbord TFK (2025)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telemarkfylke-my.sharepoint.com/personal/even_sannes_riiser_telemarkfylke_no/Documents/Github/Telemark/Data/Bystrategi_Grenland/Klima/Luftforurensing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0131575F-FCB9-47CA-9FD0-6CAE37EB19CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{0131575F-FCB9-47CA-9FD0-6CAE37EB19CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9416E23F-395C-4D92-B3EB-C047E6672847}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBB06792-495A-4E38-B82F-E346D60218DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21120" xr2:uid="{CBB06792-495A-4E38-B82F-E346D60218DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tidsserie_2361-2473-2723-2724-1" sheetId="1" r:id="rId1"/>
@@ -910,13 +910,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED74E23-3DF4-4AEE-9DB3-F4F5F17325B2}">
   <dimension ref="A1:L366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="S66" sqref="S66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -954,7 +957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>42005</v>
       </c>
@@ -992,7 +995,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>42006</v>
       </c>
@@ -1030,7 +1033,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>42007</v>
       </c>
@@ -1068,7 +1071,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>42008</v>
       </c>
@@ -1106,7 +1109,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>42009</v>
       </c>
@@ -1144,7 +1147,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>42010</v>
       </c>
@@ -1182,7 +1185,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>42011</v>
       </c>
@@ -1220,7 +1223,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>42012</v>
       </c>
@@ -1258,7 +1261,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>42013</v>
       </c>
@@ -1296,7 +1299,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>42014</v>
       </c>
@@ -1334,7 +1337,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>42015</v>
       </c>
@@ -1372,7 +1375,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>42016</v>
       </c>
@@ -1410,7 +1413,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>42017</v>
       </c>
@@ -1448,7 +1451,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>42018</v>
       </c>
@@ -1486,7 +1489,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>42019</v>
       </c>
@@ -1524,7 +1527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>42020</v>
       </c>
@@ -1562,7 +1565,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>42021</v>
       </c>
@@ -1600,7 +1603,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>42022</v>
       </c>
@@ -1638,7 +1641,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>42023</v>
       </c>
@@ -1676,7 +1679,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>42024</v>
       </c>
@@ -1714,7 +1717,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>42025</v>
       </c>
@@ -1752,7 +1755,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>42026</v>
       </c>
@@ -1790,7 +1793,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>42027</v>
       </c>
@@ -1828,7 +1831,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>42028</v>
       </c>
@@ -1866,7 +1869,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>42029</v>
       </c>
@@ -1904,7 +1907,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>42030</v>
       </c>
@@ -1942,7 +1945,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>42031</v>
       </c>
@@ -1974,7 +1977,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>42032</v>
       </c>
@@ -2006,7 +2009,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>42033</v>
       </c>
@@ -2038,7 +2041,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>42034</v>
       </c>
@@ -2070,7 +2073,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>42035</v>
       </c>
@@ -2102,7 +2105,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>42036</v>
       </c>
@@ -2134,7 +2137,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>42037</v>
       </c>
@@ -2166,7 +2169,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>42038</v>
       </c>
@@ -2198,7 +2201,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>42039</v>
       </c>
@@ -2230,7 +2233,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>42040</v>
       </c>
@@ -2262,7 +2265,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>42041</v>
       </c>
@@ -2294,7 +2297,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>42042</v>
       </c>
@@ -2326,7 +2329,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>42043</v>
       </c>
@@ -2358,7 +2361,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>42044</v>
       </c>
@@ -2390,7 +2393,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>42045</v>
       </c>
@@ -2422,7 +2425,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42046</v>
       </c>
@@ -2454,7 +2457,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42047</v>
       </c>
@@ -2486,7 +2489,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>42048</v>
       </c>
@@ -2518,7 +2521,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>42049</v>
       </c>
@@ -2550,7 +2553,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>42050</v>
       </c>
@@ -2582,7 +2585,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>42051</v>
       </c>
@@ -2614,7 +2617,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>42052</v>
       </c>
@@ -2646,7 +2649,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>42053</v>
       </c>
@@ -2678,7 +2681,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>42054</v>
       </c>
@@ -2710,7 +2713,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>42055</v>
       </c>
@@ -2742,7 +2745,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>42056</v>
       </c>
@@ -2774,7 +2777,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>42057</v>
       </c>
@@ -2812,7 +2815,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>42058</v>
       </c>
@@ -2850,7 +2853,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>42059</v>
       </c>
@@ -2888,7 +2891,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>42060</v>
       </c>
@@ -2920,7 +2923,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>42061</v>
       </c>
@@ -2958,7 +2961,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>42062</v>
       </c>
@@ -2996,7 +2999,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>42063</v>
       </c>
@@ -3034,7 +3037,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>42064</v>
       </c>
@@ -3072,7 +3075,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>42065</v>
       </c>
@@ -3110,7 +3113,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>42066</v>
       </c>
@@ -3148,7 +3151,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>42067</v>
       </c>
@@ -3186,7 +3189,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>42068</v>
       </c>
@@ -3224,7 +3227,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>42069</v>
       </c>
@@ -3262,7 +3265,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>42070</v>
       </c>
@@ -3300,7 +3303,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>42071</v>
       </c>
@@ -3338,7 +3341,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>42072</v>
       </c>
@@ -3376,7 +3379,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>42073</v>
       </c>
@@ -3414,7 +3417,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>42074</v>
       </c>
@@ -3452,7 +3455,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>42075</v>
       </c>
@@ -3490,7 +3493,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>42076</v>
       </c>
@@ -3528,7 +3531,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>42077</v>
       </c>
@@ -3566,7 +3569,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>42078</v>
       </c>
@@ -3604,7 +3607,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>42079</v>
       </c>
@@ -3642,7 +3645,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>42080</v>
       </c>
@@ -3680,7 +3683,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>42081</v>
       </c>
@@ -3718,7 +3721,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>42082</v>
       </c>
@@ -3756,7 +3759,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>42083</v>
       </c>
@@ -3794,7 +3797,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>42084</v>
       </c>
@@ -3832,7 +3835,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>42085</v>
       </c>
@@ -3870,7 +3873,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>42086</v>
       </c>
@@ -3908,7 +3911,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>42087</v>
       </c>
@@ -3946,7 +3949,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>42088</v>
       </c>
@@ -3984,7 +3987,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>42089</v>
       </c>
@@ -4016,7 +4019,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>42090</v>
       </c>
@@ -4054,7 +4057,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>42091</v>
       </c>
@@ -4092,7 +4095,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>42092</v>
       </c>
@@ -4130,7 +4133,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>42093</v>
       </c>
@@ -4168,7 +4171,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>42094</v>
       </c>
@@ -4206,7 +4209,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>42095</v>
       </c>
@@ -4244,7 +4247,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>42096</v>
       </c>
@@ -4282,7 +4285,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>42097</v>
       </c>
@@ -4320,7 +4323,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>42098</v>
       </c>
@@ -4358,7 +4361,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>42099</v>
       </c>
@@ -4396,7 +4399,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>42100</v>
       </c>
@@ -4434,7 +4437,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>42101</v>
       </c>
@@ -4472,7 +4475,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>42102</v>
       </c>
@@ -4510,7 +4513,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>42103</v>
       </c>
@@ -4548,7 +4551,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>42104</v>
       </c>
@@ -4586,7 +4589,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>42105</v>
       </c>
@@ -4624,7 +4627,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>42106</v>
       </c>
@@ -4656,7 +4659,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>42107</v>
       </c>
@@ -4694,7 +4697,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>42108</v>
       </c>
@@ -4732,7 +4735,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>42109</v>
       </c>
@@ -4770,7 +4773,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>42110</v>
       </c>
@@ -4808,7 +4811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>42111</v>
       </c>
@@ -4846,7 +4849,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>42112</v>
       </c>
@@ -4884,7 +4887,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>42113</v>
       </c>
@@ -4922,7 +4925,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>42114</v>
       </c>
@@ -4960,7 +4963,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>42115</v>
       </c>
@@ -4992,7 +4995,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>42116</v>
       </c>
@@ -5030,7 +5033,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>42117</v>
       </c>
@@ -5068,7 +5071,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>42118</v>
       </c>
@@ -5106,7 +5109,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>42119</v>
       </c>
@@ -5144,7 +5147,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>42120</v>
       </c>
@@ -5182,7 +5185,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>42121</v>
       </c>
@@ -5220,7 +5223,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>42122</v>
       </c>
@@ -5258,7 +5261,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>42123</v>
       </c>
@@ -5296,7 +5299,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>42124</v>
       </c>
@@ -5334,7 +5337,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>42125</v>
       </c>
@@ -5372,7 +5375,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>42126</v>
       </c>
@@ -5410,7 +5413,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>42127</v>
       </c>
@@ -5448,7 +5451,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>42128</v>
       </c>
@@ -5486,7 +5489,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>42129</v>
       </c>
@@ -5524,7 +5527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>42130</v>
       </c>
@@ -5556,7 +5559,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>42131</v>
       </c>
@@ -5588,7 +5591,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>42132</v>
       </c>
@@ -5626,7 +5629,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>42133</v>
       </c>
@@ -5664,7 +5667,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>42134</v>
       </c>
@@ -5702,7 +5705,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>42135</v>
       </c>
@@ -5740,7 +5743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>42136</v>
       </c>
@@ -5778,7 +5781,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>42137</v>
       </c>
@@ -5816,7 +5819,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>42138</v>
       </c>
@@ -5854,7 +5857,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>42139</v>
       </c>
@@ -5892,7 +5895,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>42140</v>
       </c>
@@ -5930,7 +5933,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>42141</v>
       </c>
@@ -5968,7 +5971,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>42142</v>
       </c>
@@ -6006,7 +6009,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>42143</v>
       </c>
@@ -6038,7 +6041,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>42144</v>
       </c>
@@ -6070,7 +6073,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>42145</v>
       </c>
@@ -6102,7 +6105,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>42146</v>
       </c>
@@ -6134,7 +6137,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>42147</v>
       </c>
@@ -6166,7 +6169,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>42148</v>
       </c>
@@ -6198,7 +6201,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>42149</v>
       </c>
@@ -6230,7 +6233,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>42150</v>
       </c>
@@ -6262,7 +6265,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>42151</v>
       </c>
@@ -6300,7 +6303,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>42152</v>
       </c>
@@ -6338,7 +6341,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>42153</v>
       </c>
@@ -6376,7 +6379,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>42154</v>
       </c>
@@ -6414,7 +6417,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>42155</v>
       </c>
@@ -6452,7 +6455,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>42156</v>
       </c>
@@ -6490,7 +6493,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>42157</v>
       </c>
@@ -6528,7 +6531,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>42158</v>
       </c>
@@ -6566,7 +6569,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>42159</v>
       </c>
@@ -6604,7 +6607,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>42160</v>
       </c>
@@ -6642,7 +6645,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>42161</v>
       </c>
@@ -6680,7 +6683,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>42162</v>
       </c>
@@ -6718,7 +6721,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>42163</v>
       </c>
@@ -6756,7 +6759,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>42164</v>
       </c>
@@ -6794,7 +6797,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>42165</v>
       </c>
@@ -6832,7 +6835,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>42166</v>
       </c>
@@ -6870,7 +6873,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>42167</v>
       </c>
@@ -6908,7 +6911,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>42168</v>
       </c>
@@ -6946,7 +6949,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>42169</v>
       </c>
@@ -6984,7 +6987,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>42170</v>
       </c>
@@ -7022,7 +7025,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>42171</v>
       </c>
@@ -7060,7 +7063,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>42172</v>
       </c>
@@ -7098,7 +7101,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>42173</v>
       </c>
@@ -7136,7 +7139,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>42174</v>
       </c>
@@ -7174,7 +7177,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>42175</v>
       </c>
@@ -7212,7 +7215,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>42176</v>
       </c>
@@ -7250,7 +7253,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>42177</v>
       </c>
@@ -7288,7 +7291,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>42178</v>
       </c>
@@ -7326,7 +7329,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>42179</v>
       </c>
@@ -7364,7 +7367,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>42180</v>
       </c>
@@ -7402,7 +7405,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>42181</v>
       </c>
@@ -7440,7 +7443,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>42182</v>
       </c>
@@ -7478,7 +7481,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>42183</v>
       </c>
@@ -7516,7 +7519,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>42184</v>
       </c>
@@ -7554,7 +7557,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>42185</v>
       </c>
@@ -7592,7 +7595,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>42186</v>
       </c>
@@ -7630,7 +7633,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>42187</v>
       </c>
@@ -7668,7 +7671,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>42188</v>
       </c>
@@ -7706,7 +7709,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>42189</v>
       </c>
@@ -7744,7 +7747,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>42190</v>
       </c>
@@ -7782,7 +7785,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>42191</v>
       </c>
@@ -7820,7 +7823,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>42192</v>
       </c>
@@ -7858,7 +7861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>42193</v>
       </c>
@@ -7896,7 +7899,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>42194</v>
       </c>
@@ -7934,7 +7937,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>42195</v>
       </c>
@@ -7972,7 +7975,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>42196</v>
       </c>
@@ -8010,7 +8013,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>42197</v>
       </c>
@@ -8048,7 +8051,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>42198</v>
       </c>
@@ -8086,7 +8089,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>42199</v>
       </c>
@@ -8124,7 +8127,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>42200</v>
       </c>
@@ -8162,7 +8165,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>42201</v>
       </c>
@@ -8200,7 +8203,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>42202</v>
       </c>
@@ -8238,7 +8241,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>42203</v>
       </c>
@@ -8276,7 +8279,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>42204</v>
       </c>
@@ -8314,7 +8317,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>42205</v>
       </c>
@@ -8352,7 +8355,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>42206</v>
       </c>
@@ -8390,7 +8393,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>42207</v>
       </c>
@@ -8428,7 +8431,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>42208</v>
       </c>
@@ -8466,7 +8469,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>42209</v>
       </c>
@@ -8504,7 +8507,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>42210</v>
       </c>
@@ -8542,7 +8545,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>42211</v>
       </c>
@@ -8580,7 +8583,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>42212</v>
       </c>
@@ -8618,7 +8621,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>42213</v>
       </c>
@@ -8656,7 +8659,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>42214</v>
       </c>
@@ -8694,7 +8697,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>42215</v>
       </c>
@@ -8732,7 +8735,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>42216</v>
       </c>
@@ -8770,7 +8773,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>42217</v>
       </c>
@@ -8808,7 +8811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>42218</v>
       </c>
@@ -8846,7 +8849,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>42219</v>
       </c>
@@ -8884,7 +8887,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>42220</v>
       </c>
@@ -8922,7 +8925,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>42221</v>
       </c>
@@ -8960,7 +8963,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>42222</v>
       </c>
@@ -8998,7 +9001,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>42223</v>
       </c>
@@ -9036,7 +9039,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>42224</v>
       </c>
@@ -9068,7 +9071,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>42225</v>
       </c>
@@ -9106,7 +9109,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>42226</v>
       </c>
@@ -9144,7 +9147,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>42227</v>
       </c>
@@ -9182,7 +9185,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>42228</v>
       </c>
@@ -9220,7 +9223,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>42229</v>
       </c>
@@ -9258,7 +9261,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>42230</v>
       </c>
@@ -9296,7 +9299,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>42231</v>
       </c>
@@ -9334,7 +9337,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>42232</v>
       </c>
@@ -9372,7 +9375,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>42233</v>
       </c>
@@ -9410,7 +9413,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>42234</v>
       </c>
@@ -9448,7 +9451,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>42235</v>
       </c>
@@ -9486,7 +9489,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>42236</v>
       </c>
@@ -9524,7 +9527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>42237</v>
       </c>
@@ -9562,7 +9565,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>42238</v>
       </c>
@@ -9600,7 +9603,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>42239</v>
       </c>
@@ -9638,7 +9641,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>42240</v>
       </c>
@@ -9676,7 +9679,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>42241</v>
       </c>
@@ -9708,7 +9711,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>42242</v>
       </c>
@@ -9740,7 +9743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>42243</v>
       </c>
@@ -9778,7 +9781,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>42244</v>
       </c>
@@ -9816,7 +9819,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>42245</v>
       </c>
@@ -9854,7 +9857,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>42246</v>
       </c>
@@ -9892,7 +9895,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>42247</v>
       </c>
@@ -9930,7 +9933,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>42248</v>
       </c>
@@ -9962,7 +9965,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>42249</v>
       </c>
@@ -9994,7 +9997,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>42250</v>
       </c>
@@ -10026,7 +10029,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>42251</v>
       </c>
@@ -10064,7 +10067,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>42252</v>
       </c>
@@ -10102,7 +10105,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>42253</v>
       </c>
@@ -10140,7 +10143,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>42254</v>
       </c>
@@ -10178,7 +10181,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>42255</v>
       </c>
@@ -10216,7 +10219,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>42256</v>
       </c>
@@ -10254,7 +10257,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>42257</v>
       </c>
@@ -10292,7 +10295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>42258</v>
       </c>
@@ -10330,7 +10333,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>42259</v>
       </c>
@@ -10368,7 +10371,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>42260</v>
       </c>
@@ -10406,7 +10409,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>42261</v>
       </c>
@@ -10444,7 +10447,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>42262</v>
       </c>
@@ -10482,7 +10485,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>42263</v>
       </c>
@@ -10520,7 +10523,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>42264</v>
       </c>
@@ -10558,7 +10561,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>42265</v>
       </c>
@@ -10596,7 +10599,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>42266</v>
       </c>
@@ -10634,7 +10637,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>42267</v>
       </c>
@@ -10672,7 +10675,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>42268</v>
       </c>
@@ -10710,7 +10713,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>42269</v>
       </c>
@@ -10748,7 +10751,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>42270</v>
       </c>
@@ -10786,7 +10789,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>42271</v>
       </c>
@@ -10824,7 +10827,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>42272</v>
       </c>
@@ -10862,7 +10865,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>42273</v>
       </c>
@@ -10900,7 +10903,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>42274</v>
       </c>
@@ -10938,7 +10941,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>42275</v>
       </c>
@@ -10976,7 +10979,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>42276</v>
       </c>
@@ -11014,7 +11017,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>42277</v>
       </c>
@@ -11052,7 +11055,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>42278</v>
       </c>
@@ -11090,7 +11093,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>42279</v>
       </c>
@@ -11128,7 +11131,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>42280</v>
       </c>
@@ -11166,7 +11169,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>42281</v>
       </c>
@@ -11204,7 +11207,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>42282</v>
       </c>
@@ -11242,7 +11245,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>42283</v>
       </c>
@@ -11280,7 +11283,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>42284</v>
       </c>
@@ -11318,7 +11321,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>42285</v>
       </c>
@@ -11356,7 +11359,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>42286</v>
       </c>
@@ -11394,7 +11397,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>42287</v>
       </c>
@@ -11432,7 +11435,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>42288</v>
       </c>
@@ -11470,7 +11473,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>42289</v>
       </c>
@@ -11508,7 +11511,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>42290</v>
       </c>
@@ -11546,7 +11549,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>42291</v>
       </c>
@@ -11584,7 +11587,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>42292</v>
       </c>
@@ -11622,7 +11625,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>42293</v>
       </c>
@@ -11660,7 +11663,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>42294</v>
       </c>
@@ -11698,7 +11701,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>42295</v>
       </c>
@@ -11736,7 +11739,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>42296</v>
       </c>
@@ -11774,7 +11777,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>42297</v>
       </c>
@@ -11812,7 +11815,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>42298</v>
       </c>
@@ -11850,7 +11853,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>42299</v>
       </c>
@@ -11888,7 +11891,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>42300</v>
       </c>
@@ -11926,7 +11929,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>42301</v>
       </c>
@@ -11964,7 +11967,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>42302</v>
       </c>
@@ -12002,7 +12005,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>42303</v>
       </c>
@@ -12040,7 +12043,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>42304</v>
       </c>
@@ -12072,7 +12075,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>42305</v>
       </c>
@@ -12104,7 +12107,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>42306</v>
       </c>
@@ -12136,7 +12139,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>42307</v>
       </c>
@@ -12168,7 +12171,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>42308</v>
       </c>
@@ -12200,7 +12203,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>42309</v>
       </c>
@@ -12232,7 +12235,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>42310</v>
       </c>
@@ -12264,7 +12267,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>42311</v>
       </c>
@@ -12296,7 +12299,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>42312</v>
       </c>
@@ -12334,7 +12337,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>42313</v>
       </c>
@@ -12372,7 +12375,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>42314</v>
       </c>
@@ -12410,7 +12413,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>42315</v>
       </c>
@@ -12448,7 +12451,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>42316</v>
       </c>
@@ -12486,7 +12489,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>42317</v>
       </c>
@@ -12524,7 +12527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>42318</v>
       </c>
@@ -12562,7 +12565,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>42319</v>
       </c>
@@ -12600,7 +12603,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>42320</v>
       </c>
@@ -12632,7 +12635,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>42321</v>
       </c>
@@ -12670,7 +12673,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>42322</v>
       </c>
@@ -12708,7 +12711,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>42323</v>
       </c>
@@ -12746,7 +12749,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>42324</v>
       </c>
@@ -12784,7 +12787,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>42325</v>
       </c>
@@ -12822,7 +12825,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>42326</v>
       </c>
@@ -12860,7 +12863,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>42327</v>
       </c>
@@ -12898,7 +12901,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>42328</v>
       </c>
@@ -12936,7 +12939,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>42329</v>
       </c>
@@ -12974,7 +12977,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>42330</v>
       </c>
@@ -13012,7 +13015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>42331</v>
       </c>
@@ -13050,7 +13053,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>42332</v>
       </c>
@@ -13088,7 +13091,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>42333</v>
       </c>
@@ -13126,7 +13129,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>42334</v>
       </c>
@@ -13164,7 +13167,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>42335</v>
       </c>
@@ -13202,7 +13205,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>42336</v>
       </c>
@@ -13240,7 +13243,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>42337</v>
       </c>
@@ -13278,7 +13281,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>42338</v>
       </c>
@@ -13316,7 +13319,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>42339</v>
       </c>
@@ -13354,7 +13357,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>42340</v>
       </c>
@@ -13392,7 +13395,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>42341</v>
       </c>
@@ -13430,7 +13433,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>42342</v>
       </c>
@@ -13468,7 +13471,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>42343</v>
       </c>
@@ -13506,7 +13509,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>42344</v>
       </c>
@@ -13544,7 +13547,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>42345</v>
       </c>
@@ -13582,7 +13585,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>42346</v>
       </c>
@@ -13620,7 +13623,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>42347</v>
       </c>
@@ -13658,7 +13661,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>42348</v>
       </c>
@@ -13696,7 +13699,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>42349</v>
       </c>
@@ -13728,7 +13731,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>42350</v>
       </c>
@@ -13766,7 +13769,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>42351</v>
       </c>
@@ -13804,7 +13807,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>42352</v>
       </c>
@@ -13842,7 +13845,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>42353</v>
       </c>
@@ -13880,7 +13883,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>42354</v>
       </c>
@@ -13918,7 +13921,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>42355</v>
       </c>
@@ -13956,7 +13959,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>42356</v>
       </c>
@@ -13994,7 +13997,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>42357</v>
       </c>
@@ -14032,7 +14035,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>42358</v>
       </c>
@@ -14070,7 +14073,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>42359</v>
       </c>
@@ -14108,7 +14111,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>42360</v>
       </c>
@@ -14146,7 +14149,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>42361</v>
       </c>
@@ -14184,7 +14187,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>42362</v>
       </c>
@@ -14222,7 +14225,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>42363</v>
       </c>
@@ -14260,7 +14263,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>42364</v>
       </c>
@@ -14298,7 +14301,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>42365</v>
       </c>
@@ -14336,7 +14339,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>42366</v>
       </c>
@@ -14374,7 +14377,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>42367</v>
       </c>
@@ -14412,7 +14415,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>42368</v>
       </c>
@@ -14450,7 +14453,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>42369</v>
       </c>
